--- a/BaoCao_SystemTest_OrderHistory.xlsx
+++ b/BaoCao_SystemTest_OrderHistory.xlsx
@@ -41,19 +41,20 @@
     <t>Xem Lịch sử &amp; Chi tiết đơn hàng</t>
   </si>
   <si>
-    <t>1. Menu User -&gt; Đơn hàng của tôi
-2. (Auto Fix URL)
-3. Check list đơn
-4. Xem chi tiết</t>
+    <t>1. Click Menu 'Đơn hàng của tôi'
+2. Check danh sách đơn
+3. Click nút 'Chi tiết' đơn đầu tiên
+4. Check thông tin trang chi tiết
+5. Quay lại</t>
   </si>
   <si>
     <t>User: user</t>
   </si>
   <si>
-    <t>Hiển thị đúng danh sách và thông tin chi tiết</t>
-  </si>
-  <si>
-    <t>Hoàn thành test: #1052</t>
+    <t>Hiển thị đúng danh sách, thông tin chi tiết trùng khớp với tổng tiền, và quay lại thành công</t>
+  </si>
+  <si>
+    <t>Hoàn thành test: Xem danh sách, chi tiết và quay lại thành công cho đơn #2071</t>
   </si>
   <si>
     <t>PASS</t>
@@ -142,10 +143,10 @@
   <cols>
     <col min="1" max="1" width="13.81640625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="29.6640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="31.125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="30.78515625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="10.13671875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="40.47265625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="22.1015625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="81.80078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="71.69921875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="10.62890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
